--- a/Photoswitches SI/fulldata.logt12_train.xlsx
+++ b/Photoswitches SI/fulldata.logt12_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,16 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>E (J)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>E (eV)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>mol</t>
         </is>
       </c>
@@ -494,7 +504,9 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
         <is>
           <t>c1c(N)cc2c(c1)N=Nc1ccc(N)cc1CC2</t>
         </is>
@@ -526,7 +538,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="n">
+        <v>5.933731343283582e-19</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.703543802451672</v>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>c1cc(ccc1C)N=Nc1c(n[nH]c1C)C</t>
         </is>
@@ -558,7 +576,13 @@
           <t>dimethyl sulfoxide</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="n">
+        <v>5.446027397260274e-19</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.399142941976193</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>C1CN(CCC1)c1c(c(ccc1)F)N=Nc1cccn1C</t>
         </is>
@@ -590,7 +614,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="n">
+        <v>6.060365853658537e-19</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.78258284701619</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>Clc1cccc(Cl)c1N=Nc1c(nn(c1C)C)C</t>
         </is>
@@ -622,7 +652,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="n">
+        <v>5.761739130434783e-19</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.596194706728436</v>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>c1cc(ccc1)N=Nc1c(C)n(C)c(c1C)C</t>
         </is>
@@ -654,7 +690,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="n">
+        <v>6.330573248407644e-19</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.951233037647486</v>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>c1(cc(cc(F)c1N=Nc1c(cc(cc1F)C(OCC)=O)F)C(OCC)=O)F</t>
         </is>
@@ -686,7 +728,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="n">
+        <v>6.005438066465257e-19</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.7482996187955</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>c1(c(c(C)[nH]n1)N=Nc1cc(C)ccc1)C</t>
         </is>
@@ -718,7 +766,13 @@
           <t>dimethyl sulfoxide</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="n">
+        <v>6.097546012269939e-19</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.805788876752486</v>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>C1CCN(C1)c1c(N=Nc2c(-c3ccccc3)n(nc2-c2ccccc2)C)cccc1</t>
         </is>
@@ -750,7 +804,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="n">
+        <v>5.47603305785124e-19</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.417871002262563</v>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>c1cc(ccc1)N=Nc1n(ccn1)C</t>
         </is>
@@ -780,7 +840,9 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
         <is>
           <t>c1c(ccc2CCc3ccc(cc3N=Nc12)CCN)CCN</t>
         </is>
@@ -812,7 +874,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="n">
+        <v>5.829325513196481e-19</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.638378808860148</v>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>c1cc(ccc1N=Nc1c(cc(OC)cc1)N1CCCCC1)OC</t>
         </is>
@@ -844,7 +912,13 @@
           <t>dimethyl sulfoxide</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="n">
+        <v>6.582119205298014e-19</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.108235674905002</v>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>c1(Cl)cc(cc(Cl)c1N=Nc1c(Cl)cccc1Cl)C</t>
         </is>
@@ -876,7 +950,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="n">
+        <v>6.290506329113924e-19</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.926225233611742</v>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>Fc1cc(cc(F)c1N=Nc1ccccc1)C(=O)OCC</t>
         </is>
@@ -906,7 +986,9 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
         <is>
           <t>CC(C)(C)OCc1ccc2c(N=Nc3c(CC2)ccc(COC(C)(C)C)c3)c1</t>
         </is>
@@ -938,7 +1020,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="n">
+        <v>6.023636363636364e-19</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.759658102488819</v>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>c1ccccc1N=Nc1c(n[nH]c1C)C</t>
         </is>
@@ -970,7 +1058,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="n">
+        <v>6.211875000000001e-19</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.877147418191595</v>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>Fc1cc(cc(F)c1N=Nc1ccc(cc1)C(OCC)=O)C(=O)OCC</t>
         </is>
@@ -1002,7 +1096,13 @@
           <t>dimethyl sulfoxide</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H18" t="n">
+        <v>4.969500000000001e-19</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.101717934553276</v>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>Clc1cc(cc(Cl)c1N=Nc1c(Cl)cccc1Cl)N(C)C</t>
         </is>
@@ -1034,7 +1134,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H19" t="n">
+        <v>6.412258064516129e-19</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.002216689746162</v>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>c1cc(ccc1)CO[C@@H]1[C@H]([C@H]2[C@H](O[C@H]1Sc1ccccc1)COC(COc1c(N=Nc3ccccc3OCC(=O)O2)cccc1)=O)OCc1ccccc1</t>
         </is>
@@ -1066,7 +1172,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H20" t="n">
+        <v>5.058015267175573e-19</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.156964818883742</v>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>c1ccccc1N=Nc1ccc(s1)OC</t>
         </is>
@@ -1098,7 +1210,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H21" t="n">
+        <v>5.491160220994476e-19</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.427312634865499</v>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>c1ccccc1N=Nc1n(C)cnc1</t>
         </is>
@@ -1130,7 +1248,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H22" t="n">
+        <v>5.1765625e-19</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.230956181826329</v>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>c1cc(ccc1N=Nc1nccs1)OC</t>
         </is>
@@ -1160,7 +1284,9 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
         <is>
           <t>C(c1ccc2CCc3ccc(CN)cc3N=Nc2c1)N</t>
         </is>
@@ -1192,7 +1318,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H24" t="n">
+        <v>5.812280701754387e-19</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.627740274331317</v>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
           <t>c1cc(ccc1N=Nc1c(n[nH]c1C)C)OC</t>
         </is>
@@ -1224,7 +1356,13 @@
           <t>dimethyl sulfoxide</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H25" t="n">
+        <v>6.290506329113924e-19</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.926225233611742</v>
+      </c>
+      <c r="J25" t="inlineStr">
         <is>
           <t>c1(F)cccc(F)c1N=Nc1cn(nc1)C</t>
         </is>
@@ -1256,7 +1394,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="H26" t="n">
+        <v>5.679428571428571e-19</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.544820496632315</v>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
           <t>N(c1ccccc1OC)=Nc1c(C)[nH]nc1C</t>
         </is>
@@ -1288,7 +1432,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="H27" t="n">
+        <v>5.863716814159292e-19</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.659844170564337</v>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>c1c(Cl)c(ccc1)N=Nc1c(C)[nH]nc1C</t>
         </is>
@@ -1320,7 +1470,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="H28" t="n">
+        <v>5.357951482479785e-19</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.344170279841807</v>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>c1cc(ccc1N=Nc1nccs1)C#N</t>
         </is>
@@ -1352,7 +1508,13 @@
           <t>water</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H29" t="n">
+        <v>3.750566037735849e-19</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.340919195889265</v>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>C1CCCN1c1cc(NC(=O)CCl)ccc1N=Nc1c(cc(NC(=O)CCl)cc1)N1CCCC1</t>
         </is>
@@ -1384,7 +1546,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="H30" t="n">
+        <v>5.898516320474778e-19</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.681564314009823</v>
+      </c>
+      <c r="J30" t="inlineStr">
         <is>
           <t>c1cc(ccc1Br)N=Nc1c(n[nH]c1C)C</t>
         </is>
@@ -1416,7 +1584,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="H31" t="n">
+        <v>6.474918566775244e-19</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4.041326299092217</v>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>c1c(OC)c(c(cc1)OC)N=Nc1c(C)nn(c1C)C</t>
         </is>
@@ -1448,7 +1622,13 @@
           <t>toluene</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="H32" t="n">
+        <v>6.173291925465839e-19</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.853065757209039</v>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>c1ccccc1N=Nc1cnccc1C</t>
         </is>
@@ -1478,7 +1658,9 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
         <is>
           <t>c1(CN=[N+]=[N-])cc2N=Nc3cc(CN=[N+]=[N-])ccc3CCc2cc1</t>
         </is>
@@ -1510,7 +1692,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="H34" t="n">
+        <v>6.023636363636364e-19</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3.759658102488819</v>
+      </c>
+      <c r="J34" t="inlineStr">
         <is>
           <t>c1(c(c(C)[nH]n1)N=Nc1cccc(c1)O)C</t>
         </is>
@@ -1542,7 +1730,13 @@
           <t>dimethyl sulfoxide</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="H35" t="n">
+        <v>6.231347962382445e-19</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3.889301485333261</v>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>C1CN(CCO1)c1c(N=Nc2c(C)onc2C)cccc1</t>
         </is>
@@ -1574,7 +1768,13 @@
           <t>water</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="H36" t="n">
+        <v>4.417333333333334e-19</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.757082608491801</v>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>C1CN(CCN1c1ccc(cc1)N=Nc1ccc(cc1)N1CCN(CC1)C(CCl)=O)C(CCl)=O</t>
         </is>
@@ -1606,7 +1806,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="H37" t="n">
+        <v>5.933731343283582e-19</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3.703543802451672</v>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>c1ccccc1N=Nc1c(C)nn(c1C)C</t>
         </is>
@@ -1638,7 +1844,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="H38" t="n">
+        <v>5.812280701754387e-19</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.627740274331317</v>
+      </c>
+      <c r="J38" t="inlineStr">
         <is>
           <t>c1cc(ccc1N=Nc1c(n[nH]c1C)C)C(=O)O</t>
         </is>
@@ -1670,7 +1882,13 @@
           <t>water</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H39" t="n">
+        <v>4.548741418764303e-19</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.839101084259292</v>
+      </c>
+      <c r="J39" t="inlineStr">
         <is>
           <t>C1CN(CCN1c1c(ccc(NC(=O)CCl)c1)N=Nc1c(cc(NC(=O)CCl)cc1)N1CCN(CC1)C)C</t>
         </is>
@@ -1702,7 +1920,13 @@
           <t>dimethyl sulfoxide</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="H40" t="n">
+        <v>5.491160220994476e-19</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.427312634865499</v>
+      </c>
+      <c r="J40" t="inlineStr">
         <is>
           <t>C1CCCN1c1c(c(ccc1)F)N=Nc1cccn1C</t>
         </is>
@@ -1734,7 +1958,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="H41" t="n">
+        <v>6.060365853658537e-19</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3.78258284701619</v>
+      </c>
+      <c r="J41" t="inlineStr">
         <is>
           <t>c1(cccc(F)c1N=Nc1c(n(nc1C)C)C)F</t>
         </is>
@@ -1766,7 +1996,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="H42" t="n">
+        <v>6.412258064516129e-19</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4.002216689746162</v>
+      </c>
+      <c r="J42" t="inlineStr">
         <is>
           <t>c1cc(ccc1)N=Nc1nn(C)nn1</t>
         </is>
@@ -1798,7 +2034,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="H43" t="n">
+        <v>5.916071428571429e-19</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3.692521350658662</v>
+      </c>
+      <c r="J43" t="inlineStr">
         <is>
           <t>c1cccc(c1N=Nc1c(C)[nH]nc1C)C</t>
         </is>
@@ -1830,7 +2072,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="H44" t="n">
+        <v>5.695702005730659e-19</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3.554977575419227</v>
+      </c>
+      <c r="J44" t="inlineStr">
         <is>
           <t>c1cc(ccc1OC)N=Nc1nnn(C)c1</t>
         </is>
@@ -1862,7 +2110,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="H45" t="n">
+        <v>5.3008e-19</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3.308499130190161</v>
+      </c>
+      <c r="J45" t="inlineStr">
         <is>
           <t>FC(F)(F)c1ccc(cc1)N=Nc1sc(C)cc1</t>
         </is>
@@ -1892,7 +2146,9 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
         <is>
           <t>N1=Nc2cc(ccc2CCc2c1cc(cc2)C=C)C=C</t>
         </is>
@@ -1924,7 +2180,13 @@
           <t>toluene</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="H47" t="n">
+        <v>6.023636363636364e-19</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3.759658102488819</v>
+      </c>
+      <c r="J47" t="inlineStr">
         <is>
           <t>c1cc(ccc1)N=Nc1c(I)ccnc1</t>
         </is>
@@ -1956,7 +2218,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="H48" t="n">
+        <v>5.987349397590362e-19</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3.737009559702742</v>
+      </c>
+      <c r="J48" t="inlineStr">
         <is>
           <t>O=C(O)c1cccc(c1)N=Nc1c(C)n[nH]c1C</t>
         </is>
@@ -1988,7 +2256,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H49" t="n">
+        <v>6.412258064516129e-19</v>
+      </c>
+      <c r="I49" t="n">
+        <v>4.002216689746162</v>
+      </c>
+      <c r="J49" t="inlineStr">
         <is>
           <t>Fc1c(F)c(c(F)c(F)c1N=Nc1c(F)c(F)c(c(F)c1F)F)F</t>
         </is>
@@ -2020,7 +2294,13 @@
           <t>dimethyl sulfoxide</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="H50" t="n">
+        <v>6.173291925465839e-19</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3.853065757209039</v>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>C1CCN(C1)c1c(cccc1)N=Nc1c(C)n(nc1C)C</t>
         </is>
@@ -2052,7 +2332,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="H51" t="n">
+        <v>5.679428571428571e-19</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3.544820496632315</v>
+      </c>
+      <c r="J51" t="inlineStr">
         <is>
           <t>c1cc(ccc1NC(C)=O)N=Nc1c(n[nH]c1C)C</t>
         </is>
@@ -2084,7 +2370,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="H52" t="n">
+        <v>5.386991869918699e-19</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3.362295864014391</v>
+      </c>
+      <c r="J52" t="inlineStr">
         <is>
           <t>c1cnc(N=Nc2c(cccc2)F)s1</t>
         </is>
@@ -2114,7 +2406,9 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
         <is>
           <t>C(N=[N+]=[N-])Cc1cc2N=Nc3cc(ccc3CCc2cc1)CCN=[N+]=[N-]</t>
         </is>
@@ -2146,7 +2440,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="H54" t="n">
+        <v>5.460989010989012e-19</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3.408481246761842</v>
+      </c>
+      <c r="J54" t="inlineStr">
         <is>
           <t>c1ccc(cc1C#N)N=Nc1cccs1</t>
         </is>
@@ -2176,7 +2476,9 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
         <is>
           <t>c12c(CCc3c(N=N1)cccc3)cccc2</t>
         </is>
@@ -2208,7 +2510,13 @@
           <t>dimethyl sulfoxide</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="H56" t="n">
+        <v>5.881065088757397e-19</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3.670672111897368</v>
+      </c>
+      <c r="J56" t="inlineStr">
         <is>
           <t>c1c(OC)c(c(cc1NC(=O)C)OC)N=Nc1c(cc(cc1OC)NC(=O)C)OC</t>
         </is>
@@ -2240,7 +2548,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="H57" t="n">
+        <v>5.460989010989012e-19</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3.408481246761842</v>
+      </c>
+      <c r="J57" t="inlineStr">
         <is>
           <t>c1ccsc1N=Nc1cc(OC)ccc1</t>
         </is>
@@ -2272,7 +2586,13 @@
           <t>dimethyl sulfoxide</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="H58" t="n">
+        <v>6.738305084745764e-19</v>
+      </c>
+      <c r="I58" t="n">
+        <v>4.205719233292578</v>
+      </c>
+      <c r="J58" t="inlineStr">
         <is>
           <t>Clc1cc(cc(Cl)c1N=Nc1c(Cl)cccc1Cl)OC(=O)C</t>
         </is>
@@ -2304,7 +2624,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="H59" t="n">
+        <v>5.916071428571429e-19</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3.692521350658662</v>
+      </c>
+      <c r="J59" t="inlineStr">
         <is>
           <t>c1c(cccc1Cl)N=Nc1c(C)n[nH]c1C</t>
         </is>
@@ -2336,7 +2662,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="H60" t="n">
+        <v>5.357951482479785e-19</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3.344170279841807</v>
+      </c>
+      <c r="J60" t="inlineStr">
         <is>
           <t>c1cnc(N=Nc2ccccc2Cl)s1</t>
         </is>
@@ -2368,7 +2700,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="H61" t="n">
+        <v>6.060365853658537e-19</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3.78258284701619</v>
+      </c>
+      <c r="J61" t="inlineStr">
         <is>
           <t>c1cc(ccc1)N=Nc1cnn(C)c1</t>
         </is>
@@ -2400,7 +2738,13 @@
           <t>dimethyl sulfoxide</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="H62" t="n">
+        <v>5.506371191135734e-19</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3.4368065756823</v>
+      </c>
+      <c r="J62" t="inlineStr">
         <is>
           <t>C1CCN(C1)c1ccccc1N=Nc1cccn1C</t>
         </is>
@@ -2432,7 +2776,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="H63" t="n">
+        <v>5.951497005988024e-19</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3.714632256950031</v>
+      </c>
+      <c r="J63" t="inlineStr">
         <is>
           <t>c1cccc(N=Nc2c(C)[nH]nc2C)c1F</t>
         </is>
@@ -2464,7 +2814,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="H64" t="n">
+        <v>5.933731343283582e-19</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3.703543802451672</v>
+      </c>
+      <c r="J64" t="inlineStr">
         <is>
           <t>c1(c(c(C)[nH]n1)N=Nc1cccc(Br)c1)C</t>
         </is>
@@ -2496,7 +2852,13 @@
           <t>water</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="H65" t="n">
+        <v>4.466966292134832e-19</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2.78806106476699</v>
+      </c>
+      <c r="J65" t="inlineStr">
         <is>
           <t>C1CN(CCC1)c1cc(NC(=O)CCl)ccc1N=Nc1c(cc(NC(=O)CCl)cc1)N1CCCCC1</t>
         </is>
@@ -2528,7 +2890,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="H66" t="n">
+        <v>5.679428571428571e-19</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3.544820496632315</v>
+      </c>
+      <c r="J66" t="inlineStr">
         <is>
           <t>c1(F)cc(cc(F)c1N=Nc1ccc(cc1)OC)OC</t>
         </is>
@@ -2560,7 +2928,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="H67" t="n">
+        <v>6.517377049180329e-19</v>
+      </c>
+      <c r="I67" t="n">
+        <v>4.067826799414132</v>
+      </c>
+      <c r="J67" t="inlineStr">
         <is>
           <t>Fc1cccc(F)c1N=Nc1c(F)cccc1F</t>
         </is>
@@ -2590,7 +2964,9 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
         <is>
           <t>c12ccc(cc1N=Nc1c(ccc(c1)CO)CC2)CO</t>
         </is>
@@ -2622,7 +2998,13 @@
           <t>water</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="H69" t="n">
+        <v>4.073360655737706e-19</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2.542391749633833</v>
+      </c>
+      <c r="J69" t="inlineStr">
         <is>
           <t>CCN(CC)c1c(N=Nc2c(N(CC)CC)cc(cc2)NC(CCl)=O)ccc(NC(CCl)=O)c1</t>
         </is>
@@ -2654,7 +3036,13 @@
           <t>toluene</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="H70" t="n">
+        <v>6.154179566563468e-19</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3.841136761056688</v>
+      </c>
+      <c r="J70" t="inlineStr">
         <is>
           <t>c1ccccc1N=Nc1c(C(C)C)ccnc1</t>
         </is>
@@ -2686,7 +3074,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="H71" t="n">
+        <v>6.116307692307693e-19</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3.817498996373263</v>
+      </c>
+      <c r="J71" t="inlineStr">
         <is>
           <t>c1(c(cccc1)F)N=Nc1c(cccc1)F</t>
         </is>
@@ -2718,7 +3112,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="H72" t="n">
+        <v>5.916071428571429e-19</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3.692521350658662</v>
+      </c>
+      <c r="J72" t="inlineStr">
         <is>
           <t>c1ccccc1N=Nc1cn(cn1)C</t>
         </is>
@@ -2750,7 +3150,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="H73" t="n">
+        <v>5.846470588235294e-19</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3.649079923003854</v>
+      </c>
+      <c r="J73" t="inlineStr">
         <is>
           <t>c1cc(ccc1)N=Nc1c(C)cnn1C</t>
         </is>
@@ -2782,7 +3188,13 @@
           <t>dimethyl sulfoxide</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="H74" t="n">
+        <v>5.987349397590362e-19</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3.737009559702742</v>
+      </c>
+      <c r="J74" t="inlineStr">
         <is>
           <t>c1ccccc1-c1noc(-c2ccccc2)c1N=Nc1c(N2CCCC2)cccc1</t>
         </is>
@@ -2814,7 +3226,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="H75" t="n">
+        <v>6.116307692307693e-19</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3.817498996373263</v>
+      </c>
+      <c r="J75" t="inlineStr">
         <is>
           <t>c1ccccc1N=Nc1c(C)cn(C)n1</t>
         </is>
@@ -2846,7 +3264,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="H76" t="n">
+        <v>5.933731343283582e-19</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3.703543802451672</v>
+      </c>
+      <c r="J76" t="inlineStr">
         <is>
           <t>FC(F)(F)c1c(cccc1)N=Nc1c([nH]nc1C)C</t>
         </is>
@@ -2878,7 +3302,13 @@
           <t>dimethyl sulfoxide</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="H77" t="n">
+        <v>5.272679045092838e-19</v>
+      </c>
+      <c r="I77" t="n">
+        <v>3.290947410666606</v>
+      </c>
+      <c r="J77" t="inlineStr">
         <is>
           <t>C1CN(CCC1)c1ccccc1N=Nc1cccn1C</t>
         </is>
@@ -2910,7 +3340,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="H78" t="n">
+        <v>5.846470588235294e-19</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3.649079923003854</v>
+      </c>
+      <c r="J78" t="inlineStr">
         <is>
           <t>c1(ccccc1N=Nc1c(C)[nH]nc1C)Br</t>
         </is>
@@ -2942,7 +3378,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="H79" t="n">
+        <v>4.124066390041494e-19</v>
+      </c>
+      <c r="I79" t="n">
+        <v>2.574039779712262</v>
+      </c>
+      <c r="J79" t="inlineStr">
         <is>
           <t>c1cnc(N=Nc2ccccc2N)s1</t>
         </is>
@@ -2974,7 +3416,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="H80" t="n">
+        <v>4.073360655737706e-19</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2.542391749633833</v>
+      </c>
+      <c r="J80" t="inlineStr">
         <is>
           <t>C1CCN(C1)c1cc(ccc1N=Nc1ccc(cc1N1CCCCC1)OC)OC</t>
         </is>
@@ -3006,7 +3454,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="H81" t="n">
+        <v>5.987349397590362e-19</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3.737009559702742</v>
+      </c>
+      <c r="J81" t="inlineStr">
         <is>
           <t>FC(F)(F)c1cc(ccc1)N=Nc1c(n[nH]c1C)C</t>
         </is>
@@ -3038,7 +3492,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="H82" t="n">
+        <v>5.537047353760446e-19</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3.455953130421477</v>
+      </c>
+      <c r="J82" t="inlineStr">
         <is>
           <t>COc1cc(c(cc1)N=Nc1c(F)cc(OC)cc1)F</t>
         </is>
@@ -3070,7 +3530,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="H83" t="n">
+        <v>6.041945288753799e-19</v>
+      </c>
+      <c r="I83" t="n">
+        <v>3.771085634715229</v>
+      </c>
+      <c r="J83" t="inlineStr">
         <is>
           <t>N(C(=O)C)c1cc(ccc1)N=Nc1c(C)n[nH]c1C</t>
         </is>
@@ -3102,7 +3568,13 @@
           <t>toluene</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="H84" t="n">
+        <v>5.3008e-19</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3.308499130190161</v>
+      </c>
+      <c r="J84" t="inlineStr">
         <is>
           <t>CC(C)(C)c1ccc(cc1)N=NC1=CN(CCC)C(=O)NC1=O</t>
         </is>
@@ -3134,7 +3606,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="H85" t="n">
+        <v>5.343548387096774e-19</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3.335180574788468</v>
+      </c>
+      <c r="J85" t="inlineStr">
         <is>
           <t>c1cnc(N=Nc2c(cccc2)I)s1</t>
         </is>
@@ -3166,7 +3644,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="H86" t="n">
+        <v>6.023636363636364e-19</v>
+      </c>
+      <c r="I86" t="n">
+        <v>3.759658102488819</v>
+      </c>
+      <c r="J86" t="inlineStr">
         <is>
           <t>c1cc(ccc1F)N=Nc1c(n[nH]c1C)C</t>
         </is>
@@ -3198,7 +3682,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="H87" t="n">
+        <v>6.412258064516129e-19</v>
+      </c>
+      <c r="I87" t="n">
+        <v>4.002216689746162</v>
+      </c>
+      <c r="J87" t="inlineStr">
         <is>
           <t>c1cc(ccc1)N=Nc1nn(cn1)C</t>
         </is>
@@ -3230,7 +3720,13 @@
           <t>toluene</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="H88" t="n">
+        <v>6.350798722044729e-19</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3.963856785371599</v>
+      </c>
+      <c r="J88" t="inlineStr">
         <is>
           <t>CN(C)c1c(cncc1)N=Nc1ccccc1</t>
         </is>
@@ -3262,7 +3758,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="H89" t="n">
+        <v>6.433009708737863e-19</v>
+      </c>
+      <c r="I89" t="n">
+        <v>4.015168847318156</v>
+      </c>
+      <c r="J89" t="inlineStr">
         <is>
           <t>c1c(F)c(c(cc1F)F)N=Nc1c(cc(cc1F)F)F</t>
         </is>
@@ -3292,7 +3794,9 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
         <is>
           <t>c1(CCO)ccc2c(c1)N=Nc1cc(CCO)ccc1CC2</t>
         </is>
@@ -3324,7 +3828,13 @@
           <t>dimethyl sulfoxide</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="H91" t="n">
+        <v>5.881065088757397e-19</v>
+      </c>
+      <c r="I91" t="n">
+        <v>3.670672111897368</v>
+      </c>
+      <c r="J91" t="inlineStr">
         <is>
           <t>c1(ccc(c(c1)OC)N=Nc1c(cc(cc1)NC(=O)C)OC)NC(=O)C</t>
         </is>
@@ -3356,7 +3866,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="H92" t="n">
+        <v>5.916071428571429e-19</v>
+      </c>
+      <c r="I92" t="n">
+        <v>3.692521350658662</v>
+      </c>
+      <c r="J92" t="inlineStr">
         <is>
           <t>c1cc(ccc1N=Nc1c(n[nH]c1C)C)Cl</t>
         </is>
@@ -3388,7 +3904,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="H93" t="n">
+        <v>5.460989010989012e-19</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3.408481246761842</v>
+      </c>
+      <c r="J93" t="inlineStr">
         <is>
           <t>c1cc(ccc1)N=Nc1nccs1</t>
         </is>
@@ -3420,7 +3942,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="H94" t="n">
+        <v>5.460989010989012e-19</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3.408481246761842</v>
+      </c>
+      <c r="J94" t="inlineStr">
         <is>
           <t>c1ccccc1N=Nc1sc(cc1)C#N</t>
         </is>
@@ -3450,7 +3978,9 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
         <is>
           <t>c12ccc(cc1N=Nc1c(ccc(c1)N)CC2)N</t>
         </is>
@@ -3482,7 +4012,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="H96" t="n">
+        <v>5.47603305785124e-19</v>
+      </c>
+      <c r="I96" t="n">
+        <v>3.417871002262563</v>
+      </c>
+      <c r="J96" t="inlineStr">
         <is>
           <t>c1cc(ccc1)N=Nc1cc(n(C)c1C)C</t>
         </is>
@@ -3514,7 +4050,13 @@
           <t>water</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="H97" t="n">
+        <v>5.343548387096774e-19</v>
+      </c>
+      <c r="I97" t="n">
+        <v>3.335180574788468</v>
+      </c>
+      <c r="J97" t="inlineStr">
         <is>
           <t>O=S(=O)(SCCOC(Nc1ccc(cc1)N=Nc1ccc(cc1)NC(=O)OCCSS(=O)(=O)C)=O)C</t>
         </is>
@@ -3546,7 +4088,13 @@
           <t>dimethyl sulfoxide</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="H98" t="n">
+        <v>6.371153846153846e-19</v>
+      </c>
+      <c r="I98" t="n">
+        <v>3.976561454555482</v>
+      </c>
+      <c r="J98" t="inlineStr">
         <is>
           <t>C1CCCN1c1cccc(c1N=Nc1c(nn(C)c1C)C)F</t>
         </is>
@@ -3578,7 +4126,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="H99" t="n">
+        <v>5.568067226890757e-19</v>
+      </c>
+      <c r="I99" t="n">
+        <v>3.475314212384623</v>
+      </c>
+      <c r="J99" t="inlineStr">
         <is>
           <t>c1cc(ccc1N=Nc1c(cc(OC)cc1)F)OC</t>
         </is>
@@ -3610,7 +4164,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="H100" t="n">
+        <v>5.829325513196481e-19</v>
+      </c>
+      <c r="I100" t="n">
+        <v>3.638378808860148</v>
+      </c>
+      <c r="J100" t="inlineStr">
         <is>
           <t>c1ccccc1N=Nc1n(C)ncc1</t>
         </is>
@@ -3642,7 +4202,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="H101" t="n">
+        <v>6.023636363636364e-19</v>
+      </c>
+      <c r="I101" t="n">
+        <v>3.759658102488819</v>
+      </c>
+      <c r="J101" t="inlineStr">
         <is>
           <t>c1(c(c(C)[nH]n1)N=Nc1cc(OC)ccc1)C</t>
         </is>
@@ -3674,7 +4240,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="H102" t="n">
+        <v>6.433009708737863e-19</v>
+      </c>
+      <c r="I102" t="n">
+        <v>4.015168847318156</v>
+      </c>
+      <c r="J102" t="inlineStr">
         <is>
           <t>c1ccccc1N=Nc1c(F)cccc1F</t>
         </is>
@@ -3706,7 +4278,13 @@
           <t>dimethyl sulfoxide</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="H103" t="n">
+        <v>5.679428571428571e-19</v>
+      </c>
+      <c r="I103" t="n">
+        <v>3.544820496632315</v>
+      </c>
+      <c r="J103" t="inlineStr">
         <is>
           <t>c1(Cl)cccc(Cl)c1N=Nc1c(Cl)cc(cc1Cl)SC</t>
         </is>
@@ -3738,7 +4316,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="H104" t="n">
+        <v>6.412258064516129e-19</v>
+      </c>
+      <c r="I104" t="n">
+        <v>4.002216689746162</v>
+      </c>
+      <c r="J104" t="inlineStr">
         <is>
           <t>Fc1cccc(F)c1N=Nc1c(F)cc(cc1F)C(OCC)=O</t>
         </is>
@@ -3770,7 +4354,13 @@
           <t>dimethyl sulfoxide</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="H105" t="n">
+        <v>6.31047619047619e-19</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3.938689440702573</v>
+      </c>
+      <c r="J105" t="inlineStr">
         <is>
           <t>C1CCN(C1)c1ccccc1N=Nc1c(C)onc1C</t>
         </is>
@@ -3802,7 +4392,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="H106" t="n">
+        <v>5.951497005988024e-19</v>
+      </c>
+      <c r="I106" t="n">
+        <v>3.714632256950031</v>
+      </c>
+      <c r="J106" t="inlineStr">
         <is>
           <t>Fc1cccc(c1)N=Nc1c(C)n[nH]c1C</t>
         </is>
@@ -3834,7 +4430,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="H107" t="n">
+        <v>5.3008e-19</v>
+      </c>
+      <c r="I107" t="n">
+        <v>3.308499130190161</v>
+      </c>
+      <c r="J107" t="inlineStr">
         <is>
           <t>c1cc(ccc1OC)N=Nc1sccc1</t>
         </is>
@@ -3866,7 +4468,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="H108" t="n">
+        <v>4.801449275362319e-19</v>
+      </c>
+      <c r="I108" t="n">
+        <v>2.996828922273696</v>
+      </c>
+      <c r="J108" t="inlineStr">
         <is>
           <t>c1cc(ccc1C#N)N=Nc1ccc(s1)OC</t>
         </is>
@@ -3898,7 +4506,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="H109" t="n">
+        <v>5.846470588235294e-19</v>
+      </c>
+      <c r="I109" t="n">
+        <v>3.649079923003854</v>
+      </c>
+      <c r="J109" t="inlineStr">
         <is>
           <t>c1cc(ccc1N=Nc1c(N2CCCC2)cc(OC)cc1)OC</t>
         </is>
@@ -3930,7 +4544,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="H110" t="n">
+        <v>5.163116883116883e-19</v>
+      </c>
+      <c r="I110" t="n">
+        <v>3.222564087847559</v>
+      </c>
+      <c r="J110" t="inlineStr">
         <is>
           <t>c1cc(ccc1)N=Nc1n(C)ccc1</t>
         </is>
@@ -3962,7 +4582,13 @@
           <t>water</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
+      <c r="H111" t="n">
+        <v>5.812280701754387e-19</v>
+      </c>
+      <c r="I111" t="n">
+        <v>3.627740274331317</v>
+      </c>
+      <c r="J111" t="inlineStr">
         <is>
           <t>c1cc(ccc1N=Nc1ccc(cc1)CSS(=O)(=O)C)CSS(=O)(=O)C</t>
         </is>
@@ -3994,7 +4620,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="H112" t="n">
+        <v>6.560396039603961e-19</v>
+      </c>
+      <c r="I112" t="n">
+        <v>4.094677141324457</v>
+      </c>
+      <c r="J112" t="inlineStr">
         <is>
           <t>Fc1c(F)cc(c(F)c1N=Nc1c(F)c(F)cc(c1F)F)F</t>
         </is>
@@ -4026,7 +4658,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="H113" t="n">
+        <v>6.211875000000001e-19</v>
+      </c>
+      <c r="I113" t="n">
+        <v>3.877147418191595</v>
+      </c>
+      <c r="J113" t="inlineStr">
         <is>
           <t>c1ccccc1N=Nc1ccn(C)n1</t>
         </is>
@@ -4058,7 +4696,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="H114" t="n">
+        <v>5.933731343283582e-19</v>
+      </c>
+      <c r="I114" t="n">
+        <v>3.703543802451672</v>
+      </c>
+      <c r="J114" t="inlineStr">
         <is>
           <t>C1CCCN1c1cc(OC)cc(F)c1N=Nc1ccc(cc1)OC</t>
         </is>
@@ -4090,7 +4734,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="H115" t="n">
+        <v>5.357951482479785e-19</v>
+      </c>
+      <c r="I115" t="n">
+        <v>3.344170279841807</v>
+      </c>
+      <c r="J115" t="inlineStr">
         <is>
           <t>c1cnc(N=Nc2c(cccc2)Br)s1</t>
         </is>
@@ -4122,7 +4772,13 @@
           <t>dimethyl sulfoxide</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="H116" t="n">
+        <v>6.041945288753799e-19</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3.771085634715229</v>
+      </c>
+      <c r="J116" t="inlineStr">
         <is>
           <t>C1CN(CCC1)c1c(cccc1)N=Nc1c(C)n(nc1C)C</t>
         </is>
@@ -4154,7 +4810,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="H117" t="n">
+        <v>5.04517766497462e-19</v>
+      </c>
+      <c r="I117" t="n">
+        <v>3.148952217820585</v>
+      </c>
+      <c r="J117" t="inlineStr">
         <is>
           <t>c1ccccc1N=Nc1n(c(cc1C)C)C</t>
         </is>
@@ -4186,7 +4848,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
+      <c r="H118" t="n">
+        <v>5.568067226890757e-19</v>
+      </c>
+      <c r="I118" t="n">
+        <v>3.475314212384623</v>
+      </c>
+      <c r="J118" t="inlineStr">
         <is>
           <t>FC(F)(F)c1ccc(cc1)N=Nc1sccc1</t>
         </is>
@@ -4216,7 +4884,9 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
         <is>
           <t>CC(C)(C)OCCc1cc2N=Nc3cc(CCOC(C)(C)C)ccc3CCc2cc1</t>
         </is>
@@ -4248,7 +4918,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
+      <c r="H120" t="n">
+        <v>5.951497005988024e-19</v>
+      </c>
+      <c r="I120" t="n">
+        <v>3.714632256950031</v>
+      </c>
+      <c r="J120" t="inlineStr">
         <is>
           <t>FC(F)(F)c1ccc(cc1)N=Nc1c(n[nH]c1C)C</t>
         </is>
@@ -4280,7 +4956,13 @@
           <t>dimethyl sulfoxide</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="H121" t="n">
+        <v>6.854482758620689e-19</v>
+      </c>
+      <c r="I121" t="n">
+        <v>4.278231633866587</v>
+      </c>
+      <c r="J121" t="inlineStr">
         <is>
           <t>FC(F)(F)c1cc(Cl)c(c(Cl)c1)N=Nc1c(Cl)cccc1Cl</t>
         </is>
